--- a/backups/Scanner_Physiology_Lab_2025-04-19T20-05-25.xlsx
+++ b/backups/Scanner_Physiology_Lab_2025-04-19T20-05-25.xlsx
@@ -433,7 +433,7 @@
         <v>22:05:32</v>
       </c>
       <c r="E2" t="str">
-        <v>unknown</v>
+        <v>admin@admin.com</v>
       </c>
     </row>
   </sheetData>
